--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Density_Distillate Production Rate and Composition</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>test001</t>
+  </si>
+  <si>
+    <t>98</t>
   </si>
 </sst>
 </file>
@@ -396,7 +399,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -451,6 +454,32 @@
         <v>224.8137359619141</v>
       </c>
     </row>
+    <row r="3" spans="1:8">
+      <c r="A3" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B3">
+        <v>0.8709139227867126</v>
+      </c>
+      <c r="C3">
+        <v>0.8722999095916748</v>
+      </c>
+      <c r="D3">
+        <v>234.7961120605469</v>
+      </c>
+      <c r="E3">
+        <v>27.21651077270508</v>
+      </c>
+      <c r="F3">
+        <v>27.38272476196289</v>
+      </c>
+      <c r="G3">
+        <v>181.18359375</v>
+      </c>
+      <c r="H3">
+        <v>224.8080749511719</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Density_Distillate Production Rate and Composition</t>
   </si>
@@ -38,10 +38,7 @@
     <t>Toluene Column C670 Operation_Column Temp Profile_C670 Btm Temp (Control)_oC</t>
   </si>
   <si>
-    <t>test001</t>
-  </si>
-  <si>
-    <t>98</t>
+    <t>20210123</t>
   </si>
 </sst>
 </file>
@@ -399,7 +396,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -433,51 +430,25 @@
         <v>7</v>
       </c>
       <c r="B2">
-        <v>0.8709139823913574</v>
+        <v>0.8709442019462585</v>
       </c>
       <c r="C2">
-        <v>0.8723000884056091</v>
+        <v>0.8725386261940002</v>
       </c>
       <c r="D2">
-        <v>235.1668853759766</v>
+        <v>299.8572692871094</v>
       </c>
       <c r="E2">
-        <v>27.25712013244629</v>
+        <v>33.02764892578125</v>
       </c>
       <c r="F2">
-        <v>27.42461776733398</v>
+        <v>33.92546844482422</v>
       </c>
       <c r="G2">
-        <v>181.1859436035156</v>
+        <v>181.9766387939453</v>
       </c>
       <c r="H2">
-        <v>224.8137359619141</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B3">
-        <v>0.8709139227867126</v>
-      </c>
-      <c r="C3">
-        <v>0.8722999095916748</v>
-      </c>
-      <c r="D3">
-        <v>234.7961120605469</v>
-      </c>
-      <c r="E3">
-        <v>27.21651077270508</v>
-      </c>
-      <c r="F3">
-        <v>27.38272476196289</v>
-      </c>
-      <c r="G3">
-        <v>181.18359375</v>
-      </c>
-      <c r="H3">
-        <v>224.8080749511719</v>
+        <v>226.4757690429688</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -1,70 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
-  <si>
-    <t>Density_Distillate Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Density_Bottoms Production Rate and Composition</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Operation_Yield 
-Summary_Reflux Rate_m3/hr</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Operation_Heat Duty_Condenser Heat Duty_Mkcal/hr</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Operation_Heat Duty_Reboiler Heat Duty_Mkcal/hr</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Operation_Column Temp Profile_C670 Tray 24 (Control)_oC</t>
-  </si>
-  <si>
-    <t>Toluene Column C670 Operation_Column Temp Profile_C670 Btm Temp (Control)_oC</t>
-  </si>
-  <si>
-    <t>20210123</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -79,35 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -395,63 +420,86 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Distillate Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Density_Bottoms Production Rate and Composition</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Toluene Column C670 Operation_Yield 
+Summary_Reflux Rate_m3/hr</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Toluene Column C670 Operation_Heat Duty_Condenser Heat Duty_Mkcal/hr</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Toluene Column C670 Operation_Heat Duty_Reboiler Heat Duty_Mkcal/hr</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Toluene Column C670 Operation_Column Temp Profile_C670 Tray 24 (Control)_oC</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Toluene Column C670 Operation_Column Temp Profile_C670 Btm Temp (Control)_oC</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B2">
-        <v>0.8709442019462585</v>
-      </c>
-      <c r="C2">
-        <v>0.8725386261940002</v>
-      </c>
-      <c r="D2">
-        <v>299.8572692871094</v>
-      </c>
-      <c r="E2">
-        <v>33.02764892578125</v>
-      </c>
-      <c r="F2">
-        <v>33.92546844482422</v>
-      </c>
-      <c r="G2">
-        <v>181.9766387939453</v>
-      </c>
-      <c r="H2">
-        <v>226.4757690429688</v>
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>123456</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>0.870955228805542</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.8725886940956116</v>
+      </c>
+      <c r="D2" t="n">
+        <v>295.614501953125</v>
+      </c>
+      <c r="E2" t="n">
+        <v>32.60966491699219</v>
+      </c>
+      <c r="F2" t="n">
+        <v>33.43036270141602</v>
+      </c>
+      <c r="G2" t="n">
+        <v>181.9393463134766</v>
+      </c>
+      <c r="H2" t="n">
+        <v>226.1581268310547</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -474,29 +474,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123456</t>
+          <t>123</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.870955228805542</v>
+        <v>0.8709546327590942</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8725886940956116</v>
+        <v>0.8725749850273132</v>
       </c>
       <c r="D2" t="n">
-        <v>295.614501953125</v>
+        <v>295.7394409179688</v>
       </c>
       <c r="E2" t="n">
-        <v>32.60966491699219</v>
+        <v>32.38544464111328</v>
       </c>
       <c r="F2" t="n">
-        <v>33.43036270141602</v>
+        <v>33.27213668823242</v>
       </c>
       <c r="G2" t="n">
-        <v>181.9393463134766</v>
+        <v>182.0018005371094</v>
       </c>
       <c r="H2" t="n">
-        <v>226.1581268310547</v>
+        <v>226.1123199462891</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -474,29 +474,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>123</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8709546327590942</v>
+        <v>0.870955228805542</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8725749850273132</v>
+        <v>0.872588038444519</v>
       </c>
       <c r="D2" t="n">
-        <v>295.7394409179688</v>
+        <v>295.5448913574219</v>
       </c>
       <c r="E2" t="n">
-        <v>32.38544464111328</v>
+        <v>32.60151290893555</v>
       </c>
       <c r="F2" t="n">
-        <v>33.27213668823242</v>
+        <v>33.42208480834961</v>
       </c>
       <c r="G2" t="n">
-        <v>182.0018005371094</v>
+        <v>181.9390106201172</v>
       </c>
       <c r="H2" t="n">
-        <v>226.1123199462891</v>
+        <v>226.1534881591797</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -474,29 +474,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>test</t>
+          <t>8888</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.870955228805542</v>
+        <v>0.8709055781364441</v>
       </c>
       <c r="C2" t="n">
-        <v>0.872588038444519</v>
+        <v>0.8723702430725098</v>
       </c>
       <c r="D2" t="n">
-        <v>295.5448913574219</v>
+        <v>287.5943298339844</v>
       </c>
       <c r="E2" t="n">
-        <v>32.60151290893555</v>
+        <v>30.75496673583984</v>
       </c>
       <c r="F2" t="n">
-        <v>33.42208480834961</v>
+        <v>31.63391876220703</v>
       </c>
       <c r="G2" t="n">
-        <v>181.9390106201172</v>
+        <v>182.0229187011719</v>
       </c>
       <c r="H2" t="n">
-        <v>226.1534881591797</v>
+        <v>225.6815185546875</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -474,29 +474,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>8888</t>
+          <t>12345</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8709055781364441</v>
+        <v>0.8709561824798584</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8723702430725098</v>
+        <v>0.8732976913452148</v>
       </c>
       <c r="D2" t="n">
-        <v>287.5943298339844</v>
+        <v>321.3354187011719</v>
       </c>
       <c r="E2" t="n">
-        <v>30.75496673583984</v>
+        <v>37.74075698852539</v>
       </c>
       <c r="F2" t="n">
-        <v>31.63391876220703</v>
+        <v>37.50019454956055</v>
       </c>
       <c r="G2" t="n">
-        <v>182.0229187011719</v>
+        <v>181.9622497558594</v>
       </c>
       <c r="H2" t="n">
-        <v>225.6815185546875</v>
+        <v>230.1358947753906</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -474,29 +474,29 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>12345</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.8709561824798584</v>
+        <v>0.8709549307823181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8732976913452148</v>
+        <v>0.8732226490974426</v>
       </c>
       <c r="D2" t="n">
-        <v>321.3354187011719</v>
+        <v>319.0880126953125</v>
       </c>
       <c r="E2" t="n">
-        <v>37.74075698852539</v>
+        <v>37.65033721923828</v>
       </c>
       <c r="F2" t="n">
-        <v>37.50019454956055</v>
+        <v>37.39894866943359</v>
       </c>
       <c r="G2" t="n">
-        <v>181.9622497558594</v>
+        <v>181.8911895751953</v>
       </c>
       <c r="H2" t="n">
-        <v>230.1358947753906</v>
+        <v>230.0887756347656</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,31 +472,83 @@
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>4321</t>
-        </is>
+      <c r="A2" s="1" t="n">
+        <v>123</v>
       </c>
       <c r="B2" t="n">
         <v>0.8709549307823181</v>
       </c>
       <c r="C2" t="n">
-        <v>0.8732226490974426</v>
+        <v>0.8732232451438904</v>
       </c>
       <c r="D2" t="n">
-        <v>319.0880126953125</v>
+        <v>319.1241149902344</v>
       </c>
       <c r="E2" t="n">
-        <v>37.65033721923828</v>
+        <v>37.65085601806641</v>
       </c>
       <c r="F2" t="n">
-        <v>37.39894866943359</v>
+        <v>37.40003204345703</v>
       </c>
       <c r="G2" t="n">
-        <v>181.8911895751953</v>
+        <v>181.8919677734375</v>
       </c>
       <c r="H2" t="n">
-        <v>230.0887756347656</v>
+        <v>230.0889434814453</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0.8709549307823181</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8732232451438904</v>
+      </c>
+      <c r="D3" t="n">
+        <v>319.1241149902344</v>
+      </c>
+      <c r="E3" t="n">
+        <v>37.65085601806641</v>
+      </c>
+      <c r="F3" t="n">
+        <v>37.40003204345703</v>
+      </c>
+      <c r="G3" t="n">
+        <v>181.8919677734375</v>
+      </c>
+      <c r="H3" t="n">
+        <v>230.0889434814453</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>456</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>0.8709549307823181</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.8732232451438904</v>
+      </c>
+      <c r="D4" t="n">
+        <v>319.1241149902344</v>
+      </c>
+      <c r="E4" t="n">
+        <v>37.65085601806641</v>
+      </c>
+      <c r="F4" t="n">
+        <v>37.40003204345703</v>
+      </c>
+      <c r="G4" t="n">
+        <v>181.8919677734375</v>
+      </c>
+      <c r="H4" t="n">
+        <v>230.0889434814453</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,10 +524,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>456</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>456</v>
       </c>
       <c r="B4" t="n">
         <v>0.8709549307823181</v>
@@ -549,6 +547,62 @@
       </c>
       <c r="H4" t="n">
         <v>230.0889434814453</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>a</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>0.8709549307823181</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.8732232451438904</v>
+      </c>
+      <c r="D5" t="n">
+        <v>319.1241149902344</v>
+      </c>
+      <c r="E5" t="n">
+        <v>37.65085601806641</v>
+      </c>
+      <c r="F5" t="n">
+        <v>37.40003204345703</v>
+      </c>
+      <c r="G5" t="n">
+        <v>181.8919677734375</v>
+      </c>
+      <c r="H5" t="n">
+        <v>230.0889434814453</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>b</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
+        <v>0.8709549307823181</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.8732226490974426</v>
+      </c>
+      <c r="D6" t="n">
+        <v>319.0880126953125</v>
+      </c>
+      <c r="E6" t="n">
+        <v>37.65033721923828</v>
+      </c>
+      <c r="F6" t="n">
+        <v>37.39894866943359</v>
+      </c>
+      <c r="G6" t="n">
+        <v>181.8911895751953</v>
+      </c>
+      <c r="H6" t="n">
+        <v>230.0887756347656</v>
       </c>
     </row>
   </sheetData>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -605,6 +605,62 @@
         <v>230.0887756347656</v>
       </c>
     </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>0.8709480166435242</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.8732147216796875</v>
+      </c>
+      <c r="D7" t="n">
+        <v>269.6632690429688</v>
+      </c>
+      <c r="E7" t="n">
+        <v>32.62083053588867</v>
+      </c>
+      <c r="F7" t="n">
+        <v>32.26833343505859</v>
+      </c>
+      <c r="G7" t="n">
+        <v>181.3432159423828</v>
+      </c>
+      <c r="H7" t="n">
+        <v>228.9816131591797</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>0.8709480166435242</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.8732147216796875</v>
+      </c>
+      <c r="D8" t="n">
+        <v>269.6569213867188</v>
+      </c>
+      <c r="E8" t="n">
+        <v>32.6202278137207</v>
+      </c>
+      <c r="F8" t="n">
+        <v>32.26775360107422</v>
+      </c>
+      <c r="G8" t="n">
+        <v>181.3432006835938</v>
+      </c>
+      <c r="H8" t="n">
+        <v>228.9815063476562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -661,6 +661,62 @@
         <v>228.9815063476562</v>
       </c>
     </row>
+    <row r="9">
+      <c r="A9" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>0.8709480166435242</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.8732147216796875</v>
+      </c>
+      <c r="D9" t="n">
+        <v>269.6632690429688</v>
+      </c>
+      <c r="E9" t="n">
+        <v>32.62083053588867</v>
+      </c>
+      <c r="F9" t="n">
+        <v>32.26833343505859</v>
+      </c>
+      <c r="G9" t="n">
+        <v>181.3432159423828</v>
+      </c>
+      <c r="H9" t="n">
+        <v>228.9816131591797</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B10" t="n">
+        <v>0.8709480166435242</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.8732147216796875</v>
+      </c>
+      <c r="D10" t="n">
+        <v>269.6569213867188</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.6202278137207</v>
+      </c>
+      <c r="F10" t="n">
+        <v>32.26775360107422</v>
+      </c>
+      <c r="G10" t="n">
+        <v>181.3432006835938</v>
+      </c>
+      <c r="H10" t="n">
+        <v>228.9815063476562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -717,6 +717,62 @@
         <v>228.9815063476562</v>
       </c>
     </row>
+    <row r="11">
+      <c r="A11" s="1" t="inlineStr">
+        <is>
+          <t>a1</t>
+        </is>
+      </c>
+      <c r="B11" t="n">
+        <v>0.8709480166435242</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.8732147216796875</v>
+      </c>
+      <c r="D11" t="n">
+        <v>269.6632690429688</v>
+      </c>
+      <c r="E11" t="n">
+        <v>32.62083053588867</v>
+      </c>
+      <c r="F11" t="n">
+        <v>32.26833343505859</v>
+      </c>
+      <c r="G11" t="n">
+        <v>181.3432159423828</v>
+      </c>
+      <c r="H11" t="n">
+        <v>228.9816131591797</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>b2</t>
+        </is>
+      </c>
+      <c r="B12" t="n">
+        <v>0.8709480166435242</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.8732147216796875</v>
+      </c>
+      <c r="D12" t="n">
+        <v>269.6569213867188</v>
+      </c>
+      <c r="E12" t="n">
+        <v>32.6202278137207</v>
+      </c>
+      <c r="F12" t="n">
+        <v>32.26775360107422</v>
+      </c>
+      <c r="G12" t="n">
+        <v>181.3432006835938</v>
+      </c>
+      <c r="H12" t="n">
+        <v>228.9815063476562</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H12"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -773,6 +773,174 @@
         <v>228.9815063476562</v>
       </c>
     </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>60000</t>
+        </is>
+      </c>
+      <c r="B13" t="n">
+        <v>0.87094646692276</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.8732117414474487</v>
+      </c>
+      <c r="D13" t="n">
+        <v>252.4046478271484</v>
+      </c>
+      <c r="E13" t="n">
+        <v>30.80026817321777</v>
+      </c>
+      <c r="F13" t="n">
+        <v>30.46035766601562</v>
+      </c>
+      <c r="G13" t="n">
+        <v>181.2380523681641</v>
+      </c>
+      <c r="H13" t="n">
+        <v>228.6407165527344</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="inlineStr">
+        <is>
+          <t>70000</t>
+        </is>
+      </c>
+      <c r="B14" t="n">
+        <v>0.87094646692276</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.8732118010520935</v>
+      </c>
+      <c r="D14" t="n">
+        <v>252.4142150878906</v>
+      </c>
+      <c r="E14" t="n">
+        <v>30.80155563354492</v>
+      </c>
+      <c r="F14" t="n">
+        <v>30.46151924133301</v>
+      </c>
+      <c r="G14" t="n">
+        <v>181.2381134033203</v>
+      </c>
+      <c r="H14" t="n">
+        <v>228.6411590576172</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="inlineStr">
+        <is>
+          <t>80000</t>
+        </is>
+      </c>
+      <c r="B15" t="n">
+        <v>0.87094646692276</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.8732118010520935</v>
+      </c>
+      <c r="D15" t="n">
+        <v>252.4142150878906</v>
+      </c>
+      <c r="E15" t="n">
+        <v>30.80155563354492</v>
+      </c>
+      <c r="F15" t="n">
+        <v>30.46151924133301</v>
+      </c>
+      <c r="G15" t="n">
+        <v>181.2381134033203</v>
+      </c>
+      <c r="H15" t="n">
+        <v>228.6411590576172</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>90000</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.87094646692276</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.8732118010520935</v>
+      </c>
+      <c r="D16" t="n">
+        <v>252.4142150878906</v>
+      </c>
+      <c r="E16" t="n">
+        <v>30.80155563354492</v>
+      </c>
+      <c r="F16" t="n">
+        <v>30.46151924133301</v>
+      </c>
+      <c r="G16" t="n">
+        <v>181.2381134033203</v>
+      </c>
+      <c r="H16" t="n">
+        <v>228.6411590576172</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="inlineStr">
+        <is>
+          <t>sim01</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.87094646692276</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.8732117414474487</v>
+      </c>
+      <c r="D17" t="n">
+        <v>252.4046478271484</v>
+      </c>
+      <c r="E17" t="n">
+        <v>30.80026817321777</v>
+      </c>
+      <c r="F17" t="n">
+        <v>30.46035766601562</v>
+      </c>
+      <c r="G17" t="n">
+        <v>181.2380523681641</v>
+      </c>
+      <c r="H17" t="n">
+        <v>228.6407165527344</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="inlineStr">
+        <is>
+          <t>real01</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.8709418773651123</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.8724151253700256</v>
+      </c>
+      <c r="D18" t="n">
+        <v>320.7410278320312</v>
+      </c>
+      <c r="E18" t="n">
+        <v>36.80814361572266</v>
+      </c>
+      <c r="F18" t="n">
+        <v>37.03065490722656</v>
+      </c>
+      <c r="G18" t="n">
+        <v>182.2348327636719</v>
+      </c>
+      <c r="H18" t="n">
+        <v>226.7963714599609</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H18"/>
+  <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,6 +941,118 @@
         <v>226.7963714599609</v>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.8709521293640137</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.8733682036399841</v>
+      </c>
+      <c r="D19" t="n">
+        <v>258.3974304199219</v>
+      </c>
+      <c r="E19" t="n">
+        <v>30.43251800537109</v>
+      </c>
+      <c r="F19" t="n">
+        <v>30.9387264251709</v>
+      </c>
+      <c r="G19" t="n">
+        <v>181.3112640380859</v>
+      </c>
+      <c r="H19" t="n">
+        <v>229.2131042480469</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.8709526062011719</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.873384952545166</v>
+      </c>
+      <c r="D20" t="n">
+        <v>238.7750244140625</v>
+      </c>
+      <c r="E20" t="n">
+        <v>28.93014717102051</v>
+      </c>
+      <c r="F20" t="n">
+        <v>29.45623207092285</v>
+      </c>
+      <c r="G20" t="n">
+        <v>181.1041259765625</v>
+      </c>
+      <c r="H20" t="n">
+        <v>229.0451965332031</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.8709521889686584</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.8733706474304199</v>
+      </c>
+      <c r="D21" t="n">
+        <v>248.2849884033203</v>
+      </c>
+      <c r="E21" t="n">
+        <v>29.56740188598633</v>
+      </c>
+      <c r="F21" t="n">
+        <v>30.06958198547363</v>
+      </c>
+      <c r="G21" t="n">
+        <v>181.2007598876953</v>
+      </c>
+      <c r="H21" t="n">
+        <v>229.0432891845703</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>test001</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.8709526062011719</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.8733781576156616</v>
+      </c>
+      <c r="D22" t="n">
+        <v>237.8105773925781</v>
+      </c>
+      <c r="E22" t="n">
+        <v>28.54962348937988</v>
+      </c>
+      <c r="F22" t="n">
+        <v>29.00068855285645</v>
+      </c>
+      <c r="G22" t="n">
+        <v>181.1326599121094</v>
+      </c>
+      <c r="H22" t="n">
+        <v>228.9304046630859</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>

--- a/log/c670_op_log.xlsx
+++ b/log/c670_op_log.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H22"/>
+  <dimension ref="A1:H18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -941,118 +941,6 @@
         <v>226.7963714599609</v>
       </c>
     </row>
-    <row r="19">
-      <c r="A19" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B19" t="n">
-        <v>0.8709521293640137</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.8733682036399841</v>
-      </c>
-      <c r="D19" t="n">
-        <v>258.3974304199219</v>
-      </c>
-      <c r="E19" t="n">
-        <v>30.43251800537109</v>
-      </c>
-      <c r="F19" t="n">
-        <v>30.9387264251709</v>
-      </c>
-      <c r="G19" t="n">
-        <v>181.3112640380859</v>
-      </c>
-      <c r="H19" t="n">
-        <v>229.2131042480469</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B20" t="n">
-        <v>0.8709526062011719</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.873384952545166</v>
-      </c>
-      <c r="D20" t="n">
-        <v>238.7750244140625</v>
-      </c>
-      <c r="E20" t="n">
-        <v>28.93014717102051</v>
-      </c>
-      <c r="F20" t="n">
-        <v>29.45623207092285</v>
-      </c>
-      <c r="G20" t="n">
-        <v>181.1041259765625</v>
-      </c>
-      <c r="H20" t="n">
-        <v>229.0451965332031</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B21" t="n">
-        <v>0.8709521889686584</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.8733706474304199</v>
-      </c>
-      <c r="D21" t="n">
-        <v>248.2849884033203</v>
-      </c>
-      <c r="E21" t="n">
-        <v>29.56740188598633</v>
-      </c>
-      <c r="F21" t="n">
-        <v>30.06958198547363</v>
-      </c>
-      <c r="G21" t="n">
-        <v>181.2007598876953</v>
-      </c>
-      <c r="H21" t="n">
-        <v>229.0432891845703</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="1" t="inlineStr">
-        <is>
-          <t>test001</t>
-        </is>
-      </c>
-      <c r="B22" t="n">
-        <v>0.8709526062011719</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.8733781576156616</v>
-      </c>
-      <c r="D22" t="n">
-        <v>237.8105773925781</v>
-      </c>
-      <c r="E22" t="n">
-        <v>28.54962348937988</v>
-      </c>
-      <c r="F22" t="n">
-        <v>29.00068855285645</v>
-      </c>
-      <c r="G22" t="n">
-        <v>181.1326599121094</v>
-      </c>
-      <c r="H22" t="n">
-        <v>228.9304046630859</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
